--- a/public/consignes/Rendu-Projet-Complet.xlsx
+++ b/public/consignes/Rendu-Projet-Complet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cedricgagnevin/cloudstation/Documents/Travail/Vacaire LPro/2021/Semestre2-Période2/Dealabs/Partie 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabrielle\Documents\GitHub\dealabs-nicolas-pierre\public\consignes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794DC59F-371B-9246-A34E-6DABE175641D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB5972A-8F11-4451-ACC8-C1BE4E5DA4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" activeTab="1" xr2:uid="{A58EC350-CF33-BC4F-BC06-897311A7761F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A58EC350-CF33-BC4F-BC06-897311A7761F}"/>
   </bookViews>
   <sheets>
     <sheet name="Partie 1" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>Binome</t>
   </si>
   <si>
-    <t>Prénom NOM</t>
-  </si>
-  <si>
     <t>Fonctionnalité</t>
   </si>
   <si>
@@ -131,6 +128,24 @@
   </si>
   <si>
     <t>API - Liste des deals sauvegardés d'un utilisateur</t>
+  </si>
+  <si>
+    <t>Thibault NICOLAS</t>
+  </si>
+  <si>
+    <t>Gabrielle PIERRE</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>Affiche les informations mais ne permet pas de les modifier (sauf suppression de compte)</t>
+  </si>
+  <si>
+    <t>Ne marche que sur les deal (nous n'avons pas réussi à sauvegarder les termes de la rcherche d'une page à l'autre).</t>
   </si>
 </sst>
 </file>
@@ -223,7 +238,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -266,111 +321,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -696,19 +671,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F401AA-F8B3-C845-98CB-91317ACEBECA}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="44.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="97.33203125" customWidth="1"/>
+    <col min="2" max="2" width="44.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -722,144 +697,184 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A7:C7 A8:A17 A19:A22">
-    <cfRule type="expression" dxfId="15" priority="7">
+  <conditionalFormatting sqref="A7:A22">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Non">
+      <formula>NOT(ISERROR(SEARCH("Non",A7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Oui">
+      <formula>NOT(ISERROR(SEARCH("Oui",A7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:A22">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>"$A$7=Oui'"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="12">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>"$A$7 == 'NON'"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:A17 A19:A22">
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",A7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",A7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="expression" dxfId="11" priority="3">
+  <conditionalFormatting sqref="A7:C7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>"$A$7=Oui'"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>"$A$7 == 'NON'"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",A18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",A18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -875,19 +890,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995777F5-5494-3840-AC9A-36EDD3A31EBD}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="44.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="97.33203125" customWidth="1"/>
+    <col min="2" max="2" width="44.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -901,111 +916,136 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:12" ht="19.2" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
+    <row r="9" spans="1:12" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
+    <row r="11" spans="1:12" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
+    <row r="12" spans="1:12" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
+    <row r="13" spans="1:12" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
+    <row r="14" spans="1:12" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
+    <row r="15" spans="1:12" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
+    <row r="17" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
+    <row r="18" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A7:C7 A8:A17">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>"$A$7=Oui'"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>"$A$7 == 'NON'"</formula>
+  <conditionalFormatting sqref="A7:A18">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Non">
+      <formula>NOT(ISERROR(SEARCH("Non",A7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Oui">
+      <formula>NOT(ISERROR(SEARCH("Oui",A7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:A17">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",A7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",A7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
+  <conditionalFormatting sqref="A8:A18">
     <cfRule type="expression" dxfId="3" priority="3">
       <formula>"$A$7=Oui'"</formula>
     </cfRule>
@@ -1013,12 +1053,12 @@
       <formula>"$A$7 == 'NON'"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",A18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",A18)))</formula>
+  <conditionalFormatting sqref="A7:C7">
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>"$A$7=Oui'"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="8">
+      <formula>"$A$7 == 'NON'"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/public/consignes/Rendu-Projet-Complet.xlsx
+++ b/public/consignes/Rendu-Projet-Complet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabrielle\Documents\GitHub\dealabs-nicolas-pierre\public\consignes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB5972A-8F11-4451-ACC8-C1BE4E5DA4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A70313-DFC4-4AB2-8DD0-79F108F04A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A58EC350-CF33-BC4F-BC06-897311A7761F}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>Binome</t>
   </si>
@@ -891,7 +891,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -941,6 +941,9 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
       <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
@@ -965,11 +968,17 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>

--- a/public/consignes/Rendu-Projet-Complet.xlsx
+++ b/public/consignes/Rendu-Projet-Complet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabrielle\Documents\GitHub\dealabs-nicolas-pierre\public\consignes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A70313-DFC4-4AB2-8DD0-79F108F04A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2E9917-C05C-429E-BF56-8C59323BEEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A58EC350-CF33-BC4F-BC06-897311A7761F}"/>
   </bookViews>
@@ -145,7 +145,7 @@
     <t>Affiche les informations mais ne permet pas de les modifier (sauf suppression de compte)</t>
   </si>
   <si>
-    <t>Ne marche que sur les deal (nous n'avons pas réussi à sauvegarder les termes de la rcherche d'une page à l'autre).</t>
+    <t>Ne marche que sur les deals.</t>
   </si>
 </sst>
 </file>
@@ -891,7 +891,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/public/consignes/Rendu-Projet-Complet.xlsx
+++ b/public/consignes/Rendu-Projet-Complet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabrielle\Documents\GitHub\dealabs-nicolas-pierre\public\consignes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2E9917-C05C-429E-BF56-8C59323BEEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBF8601-8841-4181-9F89-875F1D902153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A58EC350-CF33-BC4F-BC06-897311A7761F}"/>
   </bookViews>
@@ -142,10 +142,10 @@
     <t>Non</t>
   </si>
   <si>
-    <t>Affiche les informations mais ne permet pas de les modifier (sauf suppression de compte)</t>
-  </si>
-  <si>
     <t>Ne marche que sur les deals.</t>
+  </si>
+  <si>
+    <t>Affiche les informations mais ne permet pas de les modifier (sauf suppression de compte) + pas de mise en page</t>
   </si>
 </sst>
 </file>
@@ -672,7 +672,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -890,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995777F5-5494-3840-AC9A-36EDD3A31EBD}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -964,7 +964,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="19.2" x14ac:dyDescent="0.3">
@@ -1015,7 +1015,7 @@
         <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="19.2" x14ac:dyDescent="0.3">
